--- a/01_Crypto_Art_Portfolio_2025.xlsx
+++ b/01_Crypto_Art_Portfolio_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhoushang/Desktop/Meine Z/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhoushang/Desktop/Meine Z/Mai 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAFD433-DF8F-E84B-A4E0-41A9BD833523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9531BE14-6F89-4946-8A7B-8952291B4C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="3" xr2:uid="{8BF5CEDD-4CBF-504B-B18A-1E968C096E6E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{8BF5CEDD-4CBF-504B-B18A-1E968C096E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Coins" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -665,6 +665,12 @@
   <si>
     <t>Learning / Test / Digital Art / Community Feeling; Transfer to Temple Wallet (20.05.2025)</t>
   </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
 </sst>
 </file>
 
@@ -980,9 +986,6 @@
     <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="173" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,6 +1165,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1176,16 +1182,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFF2CC"/>
+      <color rgb="FFE6F4EA"/>
       <color rgb="FFEAF1F8"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FFE6F4EA"/>
       <color rgb="FFFDEDEC"/>
       <color rgb="FFFDECEA"/>
       <color rgb="FF9F9F9F"/>
       <color rgb="FFAFAFAF"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF8A8A8A"/>
-      <color rgb="FFFFF2CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1456,16 +1462,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1732236348223139</c:v>
+                  <c:v>0.25858515918122915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40230869402082953</c:v>
+                  <c:v>0.38699949981846676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33903621446691179</c:v>
+                  <c:v>0.25680493306030794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5431456689944785E-2</c:v>
+                  <c:v>9.7610407939996119E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,16 +1783,16 @@
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.743197821999999</c:v>
+                  <c:v>41.743197821999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.000000000000004</c:v>
+                  <c:v>30.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4327438662537162</c:v>
+                  <c:v>11.34699169909457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,17 +1907,17 @@
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13.5614803446</c:v>
+                <c:pt idx="0" formatCode="#,##0.000\ &quot;€&quot;">
+                  <c:v>27.095109600000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.496287743999989</c:v>
+                  <c:v>40.550640631999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.542757651500001</c:v>
+                  <c:v>26.908573675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6883310808000065</c:v>
+                  <c:v>10.227828656560002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,10 +3683,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F436C0-CA02-3D44-8A72-A4B1F3FC02A2}">
   <dimension ref="A1:Y723"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="84" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="84" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3801,7 +3807,7 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="4">
@@ -3848,28 +3854,28 @@
       </c>
       <c r="R2" s="5">
         <f>IFERROR(VLOOKUP(C2,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>96201.18</v>
+        <v>91414</v>
       </c>
       <c r="S2" s="19">
         <f>IF(E2="Transfer – Out", 0, F2 * R2)</f>
-        <v>5.2352682155999997</v>
+        <v>4.9747498800000001</v>
       </c>
       <c r="T2" s="7">
         <f>IF(ISNUMBER(S2), SUMIFS($S$2:S2, $C$2:C2, C2), "")</f>
-        <v>5.2352682155999997</v>
+        <v>4.9747498800000001</v>
       </c>
       <c r="U2" s="8">
         <f>IF(AND(ISNUMBER(S2), ISNUMBER(K2)), S2 - K2, "")</f>
-        <v>0.23526821559999966</v>
+        <v>-2.5250119999999932E-2</v>
       </c>
       <c r="V2" s="9">
         <f>IF(AND(ISNUMBER(S2), ISNUMBER(K2), K2&lt;&gt;0), (S2-K2)/K2, "")</f>
-        <v>4.7053643119999933E-2</v>
+        <v>-5.0500239999999863E-3</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="X2" s="61" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3886,7 +3892,7 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="6">
@@ -3921,7 +3927,7 @@
       </c>
       <c r="O3" s="7">
         <f t="shared" ref="O3:O66" si="2">F3*(N3/100)*R3</f>
-        <v>3.9102367021799997E-4</v>
+        <v>3.8486195148E-4</v>
       </c>
       <c r="P3" s="5">
         <f t="shared" ref="P3:P66" si="3">IF(OR(E3="Buy",E3="Reward",E3="Airdrop",E3="Staking"), K3, 0)</f>
@@ -3929,27 +3935,27 @@
       </c>
       <c r="Q3" s="16">
         <f>SUMIF($C$2:C3,C3,$O$2:O3)</f>
-        <v>3.9102367021799997E-4</v>
+        <v>3.8486195148E-4</v>
       </c>
       <c r="R3" s="5">
         <f>IFERROR(VLOOKUP(C3,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>2269.9699999999998</v>
+        <v>2234.1999999999998</v>
       </c>
       <c r="S3" s="19">
         <f t="shared" ref="S3:S66" si="4">IF(E3="Transfer – Out", 0, F3 * R3)</f>
-        <v>6.517061170299999</v>
+        <v>6.4143658579999991</v>
       </c>
       <c r="T3" s="7">
         <f>IF(ISNUMBER(S3), SUMIFS($S$2:S3, $C$2:C3, C3), "")</f>
-        <v>6.517061170299999</v>
+        <v>6.4143658579999991</v>
       </c>
       <c r="U3" s="8">
         <f t="shared" ref="U3:U66" si="5">IF(AND(ISNUMBER(S3), ISNUMBER(K3)), S3 - K3, "")</f>
-        <v>0.51706117029999898</v>
+        <v>0.41436585799999914</v>
       </c>
       <c r="V3" s="9">
         <f t="shared" ref="V3:V66" si="6">IF(AND(ISNUMBER(S3), ISNUMBER(K3), K3&lt;&gt;0), (S3-K3)/K3, "")</f>
-        <v>8.6176861716666497E-2</v>
+        <v>6.9060976333333191E-2</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>15</v>
@@ -3971,7 +3977,7 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="6">
@@ -4018,23 +4024,23 @@
       </c>
       <c r="R4" s="5">
         <f>IFERROR(VLOOKUP(C4,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>4.6233000000000004</v>
+        <v>3.3357999999999999</v>
       </c>
       <c r="S4" s="19">
         <f t="shared" si="4"/>
-        <v>5.2205142227040007</v>
+        <v>3.7667015647040003</v>
       </c>
       <c r="T4" s="7">
         <f>IF(ISNUMBER(S4), SUMIFS($S$2:S4, $C$2:C4, C4), "")</f>
-        <v>5.2205142227040007</v>
+        <v>3.7667015647040003</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" si="5"/>
-        <v>0.22051422270399978</v>
+        <v>-1.2332984352960006</v>
       </c>
       <c r="V4" s="9">
         <f t="shared" si="6"/>
-        <v>4.4102844540799949E-2</v>
+        <v>-0.24665968705920008</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>15</v>
@@ -4056,7 +4062,7 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="17">
@@ -4103,23 +4109,23 @@
       </c>
       <c r="R5" s="8">
         <f>IFERROR(VLOOKUP(C5,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>1.3563999999999999E-5</v>
+        <v>1.101E-5</v>
       </c>
       <c r="S5" s="19">
         <f t="shared" si="4"/>
-        <v>4.97853178076</v>
+        <v>4.0411113909000003</v>
       </c>
       <c r="T5" s="7">
         <f>IF(ISNUMBER(S5), SUMIFS($S$2:S5, $C$2:C5, C5), "")</f>
-        <v>4.97853178076</v>
+        <v>4.0411113909000003</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" si="5"/>
-        <v>-2.1468219239999975E-2</v>
+        <v>-0.95888860909999973</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="6"/>
-        <v>-4.2936438479999946E-3</v>
+        <v>-0.19177772181999994</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -4141,7 +4147,7 @@
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="6">
@@ -4188,23 +4194,23 @@
       </c>
       <c r="R6" s="5">
         <f>IFERROR(VLOOKUP(C6,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>96201.18</v>
+        <v>91414</v>
       </c>
       <c r="S6" s="19">
         <f t="shared" si="4"/>
-        <v>8.326212129</v>
+        <v>7.9118817000000004</v>
       </c>
       <c r="T6" s="7">
         <f>IF(ISNUMBER(S6), SUMIFS($S$2:S6, $C$2:C6, C6), "")</f>
-        <v>13.5614803446</v>
+        <v>12.88663158</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="5"/>
-        <v>0.32621212899999996</v>
+        <v>-8.811829999999965E-2</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="6"/>
-        <v>4.0776516124999995E-2</v>
+        <v>-1.1014787499999956E-2</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>15</v>
@@ -4226,7 +4232,7 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="6">
@@ -4269,27 +4275,27 @@
       </c>
       <c r="Q7" s="16">
         <f>SUMIF($C$2:C7,C7,$O$2:O7)</f>
-        <v>3.9102367021799997E-4</v>
+        <v>3.8486195148E-4</v>
       </c>
       <c r="R7" s="5">
         <f>IFERROR(VLOOKUP(C7,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>2269.9699999999998</v>
+        <v>2234.1999999999998</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" si="4"/>
-        <v>10.349655818599999</v>
+        <v>10.186566795999999</v>
       </c>
       <c r="T7" s="7">
         <f>IF(ISNUMBER(S7), SUMIFS($S$2:S7, $C$2:C7, C7), "")</f>
-        <v>16.866716988899999</v>
+        <v>16.600932653999998</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="5"/>
-        <v>0.34965581859999872</v>
+        <v>0.18656679599999926</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="6"/>
-        <v>3.4965581859999872E-2</v>
+        <v>1.8656679599999927E-2</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>15</v>
@@ -4311,7 +4317,7 @@
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="6">
@@ -4346,7 +4352,7 @@
       </c>
       <c r="O8" s="7">
         <f>F8*(N8/100)*R8</f>
-        <v>7.4014363462499998E-4</v>
+        <v>6.2736203384999997E-4</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" si="3"/>
@@ -4354,27 +4360,27 @@
       </c>
       <c r="Q8" s="16">
         <f>SUMIF($C$2:C8,C8,$O$2:O8)</f>
-        <v>7.4014363462499998E-4</v>
+        <v>6.2736203384999997E-4</v>
       </c>
       <c r="R8" s="5">
         <f>IFERROR(VLOOKUP(C8,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>160.85</v>
+        <v>136.34</v>
       </c>
       <c r="S8" s="19">
         <f t="shared" si="4"/>
-        <v>4.9342908975000004</v>
+        <v>4.1824135590000004</v>
       </c>
       <c r="T8" s="7">
         <f>IF(ISNUMBER(S8), SUMIFS($S$2:S8, $C$2:C8, C8), "")</f>
-        <v>4.9342908975000004</v>
+        <v>4.1824135590000004</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="5"/>
-        <v>-6.5709102500000505E-2</v>
+        <v>-0.81758644100000044</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="6"/>
-        <v>-1.3141820500000099E-2</v>
+        <v>-0.16351728820000005</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>15</v>
@@ -4396,7 +4402,7 @@
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="6">
@@ -4431,7 +4437,7 @@
       </c>
       <c r="O9" s="7">
         <f t="shared" si="2"/>
-        <v>1.07481896340826E-3</v>
+        <v>8.6388347805793002E-4</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="3"/>
@@ -4439,27 +4445,27 @@
       </c>
       <c r="Q9" s="16">
         <f>SUMIF($C$2:C9,C9,$O$2:O9)</f>
-        <v>1.07481896340826E-3</v>
+        <v>8.6388347805793002E-4</v>
       </c>
       <c r="R9" s="5">
         <f>IFERROR(VLOOKUP(C9,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>4.3917999999999999</v>
+        <v>3.5299</v>
       </c>
       <c r="S9" s="19">
         <f t="shared" si="4"/>
-        <v>4.6731259278619994</v>
+        <v>3.7560151219909996</v>
       </c>
       <c r="T9" s="7">
         <f>IF(ISNUMBER(S9), SUMIFS($S$2:S9, $C$2:C9, C9), "")</f>
-        <v>4.6731259278619994</v>
+        <v>3.7560151219909996</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="5"/>
-        <v>-0.32687407213800057</v>
+        <v>-1.2439848780090004</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="6"/>
-        <v>-6.5374814427600111E-2</v>
+        <v>-0.24879697560180009</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>15</v>
@@ -4481,7 +4487,7 @@
       <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="6">
@@ -4528,23 +4534,23 @@
       </c>
       <c r="R10" s="5">
         <f>IFERROR(VLOOKUP(C10,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>88.039000000000001</v>
+        <v>75.436000000000007</v>
       </c>
       <c r="S10" s="19">
         <f t="shared" si="4"/>
-        <v>23.188524419969998</v>
+        <v>19.869029954279998</v>
       </c>
       <c r="T10" s="7">
         <f>IF(ISNUMBER(S10), SUMIFS($S$2:S10, $C$2:C10, C10), "")</f>
-        <v>23.188524419969998</v>
+        <v>19.869029954279998</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="5"/>
-        <v>-1.8108429121299991</v>
+        <v>-5.1303373778199983</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="6"/>
-        <v>-7.2435549591081783E-2</v>
+        <v>-0.20521868852386832</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>15</v>
@@ -4566,7 +4572,7 @@
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="6">
@@ -4601,7 +4607,7 @@
       </c>
       <c r="O11" s="7">
         <f t="shared" si="2"/>
-        <v>1.8139066953479998E-3</v>
+        <v>1.7853233032799998E-3</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="3"/>
@@ -4609,27 +4615,27 @@
       </c>
       <c r="Q11" s="16">
         <f>SUMIF($C$2:C11,C11,$O$2:O11)</f>
-        <v>2.2049303655659997E-3</v>
+        <v>2.1701852547599998E-3</v>
       </c>
       <c r="R11" s="5">
         <f>IFERROR(VLOOKUP(C11,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>2269.9699999999998</v>
+        <v>2234.1999999999998</v>
       </c>
       <c r="S11" s="19">
         <f t="shared" si="4"/>
-        <v>30.231778255799995</v>
+        <v>29.755388387999997</v>
       </c>
       <c r="T11" s="7">
         <f>IF(ISNUMBER(S11), SUMIFS($S$2:S11, $C$2:C11, C11), "")</f>
-        <v>47.09849524469999</v>
+        <v>46.35632104199999</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="5"/>
-        <v>-0.9816340626000013</v>
+        <v>-1.4580239303999996</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" si="6"/>
-        <v>-3.1449110804887478E-2</v>
+        <v>-4.6711455816719823E-2</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>15</v>
@@ -4651,7 +4657,7 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="117" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="6">
@@ -4694,27 +4700,27 @@
       </c>
       <c r="Q12" s="16">
         <f>SUMIF($C$2:C12,C12,$O$2:O12)</f>
-        <v>2.2049303655659997E-3</v>
+        <v>2.1701852547599998E-3</v>
       </c>
       <c r="R12" s="5">
         <f>IFERROR(VLOOKUP(C12,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>2269.9699999999998</v>
+        <v>2234.1999999999998</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="4"/>
-        <v>-15.604886065299997</v>
+        <v>-15.358985557999997</v>
       </c>
       <c r="T12" s="7">
         <f>IF(ISNUMBER(S12), SUMIFS($S$2:S12, $C$2:C12, C12), "")</f>
-        <v>31.493609179399993</v>
+        <v>30.997335483999993</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="5"/>
-        <v>-0.13467156889999821</v>
+        <v>0.11122893840000181</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="6"/>
-        <v>8.7052166556150206E-3</v>
+        <v>-7.1898769358295176E-3</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>44</v>
@@ -4736,7 +4742,7 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="21">
@@ -4783,23 +4789,23 @@
       </c>
       <c r="R13" s="5">
         <f>IFERROR(VLOOKUP(C13,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S13" s="19">
         <f t="shared" si="4"/>
-        <v>15.631619078400002</v>
+        <v>13.59746921208</v>
       </c>
       <c r="T13" s="7">
         <f>IF(ISNUMBER(S13), SUMIFS($S$2:S13, $C$2:C13, C13), "")</f>
-        <v>15.631619078400002</v>
+        <v>13.59746921208</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="5"/>
-        <v>0.63161907839999998</v>
+        <v>-1.4025307879200017</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="6"/>
-        <v>4.2107938559999995E-2</v>
+        <v>-9.3502052528000104E-2</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>15</v>
@@ -4821,7 +4827,7 @@
       <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="E14" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="20">
@@ -4868,23 +4874,23 @@
       </c>
       <c r="R14" s="5">
         <f>IFERROR(VLOOKUP(C14,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S14" s="19">
         <f t="shared" si="4"/>
-        <v>11.526808559999999</v>
+        <v>10.026819596999999</v>
       </c>
       <c r="T14" s="7">
         <f>IF(ISNUMBER(S14), SUMIFS($S$2:S14, $C$2:C14, C14), "")</f>
-        <v>27.158427638399999</v>
+        <v>23.624288809079999</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="5"/>
-        <v>0.41261942879999935</v>
+        <v>-1.0873695342000005</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" si="6"/>
-        <v>3.7125464028831837E-2</v>
+        <v>-9.7836155329362934E-2</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>15</v>
@@ -4906,7 +4912,7 @@
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="117" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="6">
@@ -4953,23 +4959,23 @@
       </c>
       <c r="R15" s="5">
         <f>IFERROR(VLOOKUP(C15,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>88.039000000000001</v>
+        <v>75.436000000000007</v>
       </c>
       <c r="S15" s="19">
         <f t="shared" si="4"/>
-        <v>-11.59426176979</v>
+        <v>-9.93451459996</v>
       </c>
       <c r="T15" s="7">
         <f>IF(ISNUMBER(S15), SUMIFS($S$2:S15, $C$2:C15, C15), "")</f>
-        <v>11.594262650179997</v>
+        <v>9.9345153543199984</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="5"/>
-        <v>-0.51908446315000134</v>
+        <v>1.1406627066799988</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="6"/>
-        <v>4.6869178594440203E-2</v>
+        <v>-0.10299272644566397</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>45</v>
@@ -4991,7 +4997,7 @@
       <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="117" t="s">
+      <c r="E16" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="43">
@@ -5034,27 +5040,27 @@
       </c>
       <c r="Q16" s="16">
         <f>SUMIF($C$2:C16,C16,$O$2:O16)</f>
-        <v>7.4014363462499998E-4</v>
+        <v>6.2736203384999997E-4</v>
       </c>
       <c r="R16" s="5">
         <f>IFERROR(VLOOKUP(C16,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>160.85</v>
+        <v>136.34</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="4"/>
-        <v>11.881518209500001</v>
+        <v>10.071036323800001</v>
       </c>
       <c r="T16" s="7">
         <f>IF(ISNUMBER(S16), SUMIFS($S$2:S16, $C$2:C16, C16), "")</f>
-        <v>16.815809107</v>
+        <v>14.253449882800002</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="5"/>
-        <v>0.88151820949999937</v>
+        <v>-0.92896367620000042</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="6"/>
-        <v>8.0138019045454478E-2</v>
+        <v>-8.4451243290909112E-2</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>15</v>
@@ -5076,7 +5082,7 @@
       <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="117" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="6">
@@ -5123,11 +5129,11 @@
       </c>
       <c r="R17" s="5">
         <f>IFERROR(VLOOKUP(C17,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>88.039000000000001</v>
+        <v>75.436000000000007</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="4"/>
-        <v>-11.594262650180001</v>
+        <v>-9.934515354320002</v>
       </c>
       <c r="T17" s="7">
         <f>IF(ISNUMBER(S17), SUMIFS($S$2:S17, $C$2:C17, C17), "")</f>
@@ -5135,11 +5141,11 @@
       </c>
       <c r="U17" s="8">
         <f t="shared" si="5"/>
-        <v>-0.52667216034000042</v>
+        <v>1.1330751355199986</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" si="6"/>
-        <v>4.7586885404143131E-2</v>
+        <v>-0.10237776113600848</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>45</v>
@@ -5161,7 +5167,7 @@
       <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="117" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="6">
@@ -5208,11 +5214,11 @@
       </c>
       <c r="R18" s="5">
         <f>IFERROR(VLOOKUP(C18,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>4.6233000000000004</v>
+        <v>3.3357999999999999</v>
       </c>
       <c r="S18" s="19">
         <f t="shared" si="4"/>
-        <v>-5.2205142227040007</v>
+        <v>-3.7667015647040003</v>
       </c>
       <c r="T18" s="7">
         <f>IF(ISNUMBER(S18), SUMIFS($S$2:S18, $C$2:C18, C18), "")</f>
@@ -5220,11 +5226,11 @@
       </c>
       <c r="U18" s="8">
         <f t="shared" si="5"/>
-        <v>-0.60761242859199971</v>
+        <v>0.84620022940800066</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" si="6"/>
-        <v>0.13172021770928838</v>
+        <v>-0.18344206470818594</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>45</v>
@@ -5246,7 +5252,7 @@
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="117" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="6">
@@ -5289,27 +5295,27 @@
       </c>
       <c r="Q19" s="16">
         <f>SUMIF($C$2:C19,C19,$O$2:O19)</f>
-        <v>1.07481896340826E-3</v>
+        <v>8.6388347805793002E-4</v>
       </c>
       <c r="R19" s="5">
         <f>IFERROR(VLOOKUP(C19,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>4.3917999999999999</v>
+        <v>3.5299</v>
       </c>
       <c r="S19" s="19">
         <f t="shared" si="4"/>
-        <v>-4.6742905893040003</v>
+        <v>-3.7569512161720002</v>
       </c>
       <c r="T19" s="7">
         <f>IF(ISNUMBER(S19), SUMIFS($S$2:S19, $C$2:C19, C19), "")</f>
-        <v>-1.1646614420008916E-3</v>
+        <v>-9.3609418100060182E-4</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="5"/>
-        <v>-0.30025835403199963</v>
+        <v>0.61708101910000046</v>
       </c>
       <c r="V19" s="9">
         <f t="shared" si="6"/>
-        <v>6.864566557391362E-2</v>
+        <v>-0.14107829707423888</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>45</v>
@@ -5331,7 +5337,7 @@
       <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="117" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="41">
@@ -5378,23 +5384,23 @@
       </c>
       <c r="R20" s="8">
         <f>IFERROR(VLOOKUP(C20,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>1.3563999999999999E-5</v>
+        <v>1.101E-5</v>
       </c>
       <c r="S20" s="19">
         <f t="shared" si="4"/>
-        <v>-4.9785169959999998</v>
+        <v>-4.0410993900000003</v>
       </c>
       <c r="T20" s="7">
         <f>IF(ISNUMBER(S20), SUMIFS($S$2:S20, $C$2:C20, C20), "")</f>
-        <v>1.4784760000274844E-5</v>
+        <v>1.2000899999975445E-5</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="5"/>
-        <v>-0.29104483599999931</v>
+        <v>0.64637277000000015</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="6"/>
-        <v>6.2089933777867874E-2</v>
+        <v>-0.13789367657812396</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>45</v>
@@ -5416,7 +5422,7 @@
       <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="117" t="s">
+      <c r="E21" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="19">
@@ -5459,27 +5465,27 @@
       </c>
       <c r="Q21" s="16">
         <f>SUMIF($C$2:C21,C21,$O$2:O21)</f>
-        <v>7.4014363462499998E-4</v>
+        <v>6.2736203384999997E-4</v>
       </c>
       <c r="R21" s="5">
         <f>IFERROR(VLOOKUP(C21,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>160.85</v>
+        <v>136.34</v>
       </c>
       <c r="S21" s="19">
         <f t="shared" si="4"/>
-        <v>9.7172975444999992</v>
+        <v>8.2365952578000012</v>
       </c>
       <c r="T21" s="7">
         <f>IF(ISNUMBER(S21), SUMIFS($S$2:S21, $C$2:C21, C21), "")</f>
-        <v>26.533106651499999</v>
+        <v>22.490045140600003</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="5"/>
-        <v>0.71729754449999916</v>
+        <v>-0.76340474219999876</v>
       </c>
       <c r="V21" s="9">
         <f t="shared" si="6"/>
-        <v>7.9699727166666567E-2</v>
+        <v>-8.4822749133333195E-2</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>15</v>
@@ -5501,7 +5507,7 @@
       <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="117" t="s">
+      <c r="E22" s="116" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="22">
@@ -5548,23 +5554,23 @@
       </c>
       <c r="R22" s="5">
         <f>IFERROR(VLOOKUP(C22,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S22" s="19">
         <f t="shared" si="4"/>
-        <v>5.774247442400001</v>
+        <v>5.0228419351300007</v>
       </c>
       <c r="T22" s="7">
         <f>IF(ISNUMBER(S22), SUMIFS($S$2:S22, $C$2:C22, C22), "")</f>
-        <v>32.932675080800003</v>
+        <v>28.647130744209999</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="5"/>
-        <v>0.21424744240000138</v>
+        <v>-0.53715806486999895</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" si="6"/>
-        <v>3.853371266187075E-2</v>
+        <v>-9.661116274640269E-2</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>15</v>
@@ -5586,7 +5592,7 @@
       <c r="D23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F23" s="42">
@@ -5633,19 +5639,19 @@
       </c>
       <c r="R23" s="5">
         <f>IFERROR(VLOOKUP(C23,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="4"/>
-        <v>-0.49913600000000002</v>
+        <v>-0.43418319999999999</v>
       </c>
       <c r="T23" s="7">
         <f>IF(ISNUMBER(S23), SUMIFS($S$2:S23, $C$2:C23, C23), "")</f>
-        <v>32.433539080800003</v>
+        <v>28.21294754421</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="5"/>
-        <v>-0.49913600000000002</v>
+        <v>-0.43418319999999999</v>
       </c>
       <c r="V23" s="9" t="str">
         <f t="shared" si="6"/>
@@ -5671,7 +5677,7 @@
       <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="42">
@@ -5718,19 +5724,19 @@
       </c>
       <c r="R24" s="5">
         <f>IFERROR(VLOOKUP(C24,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S24" s="19">
         <f t="shared" si="4"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="T24" s="7">
         <f>IF(ISNUMBER(S24), SUMIFS($S$2:S24, $C$2:C24, C24), "")</f>
-        <v>31.803947080800004</v>
+        <v>27.665284644210001</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="5"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="V24" s="9" t="str">
         <f t="shared" si="6"/>
@@ -5756,7 +5762,7 @@
       <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="119" t="s">
+      <c r="E25" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="42">
@@ -5803,19 +5809,19 @@
       </c>
       <c r="R25" s="5">
         <f>IFERROR(VLOOKUP(C25,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S25" s="19">
         <f t="shared" si="4"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="T25" s="7">
         <f>IF(ISNUMBER(S25), SUMIFS($S$2:S25, $C$2:C25, C25), "")</f>
-        <v>31.174355080800005</v>
+        <v>27.117621744210002</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="5"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="V25" s="9" t="str">
         <f t="shared" si="6"/>
@@ -5841,7 +5847,7 @@
       <c r="D26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="119" t="s">
+      <c r="E26" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="42">
@@ -5888,19 +5894,19 @@
       </c>
       <c r="R26" s="5">
         <f>IFERROR(VLOOKUP(C26,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S26" s="19">
         <f t="shared" si="4"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="T26" s="7">
         <f>IF(ISNUMBER(S26), SUMIFS($S$2:S26, $C$2:C26, C26), "")</f>
-        <v>30.544763080800006</v>
+        <v>26.569958844210003</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="5"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="V26" s="9" t="str">
         <f t="shared" si="6"/>
@@ -5926,7 +5932,7 @@
       <c r="D27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="42">
@@ -5973,19 +5979,19 @@
       </c>
       <c r="R27" s="5">
         <f>IFERROR(VLOOKUP(C27,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S27" s="19">
         <f t="shared" si="4"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="T27" s="7">
         <f>IF(ISNUMBER(S27), SUMIFS($S$2:S27, $C$2:C27, C27), "")</f>
-        <v>29.915171080800008</v>
+        <v>26.022295944210004</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="5"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="V27" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6011,7 +6017,7 @@
       <c r="D28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="41">
@@ -6058,19 +6064,19 @@
       </c>
       <c r="R28" s="5">
         <f>IFERROR(VLOOKUP(C28,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S28" s="19">
         <f t="shared" si="4"/>
-        <v>-0.56720000000000004</v>
+        <v>-0.49339</v>
       </c>
       <c r="T28" s="7">
         <f>IF(ISNUMBER(S28), SUMIFS($S$2:S28, $C$2:C28, C28), "")</f>
-        <v>29.347971080800008</v>
+        <v>25.528905944210003</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="5"/>
-        <v>-0.56720000000000004</v>
+        <v>-0.49339</v>
       </c>
       <c r="V28" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6096,7 +6102,7 @@
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="119" t="s">
+      <c r="E29" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="42">
@@ -6143,19 +6149,19 @@
       </c>
       <c r="R29" s="5">
         <f>IFERROR(VLOOKUP(C29,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S29" s="19">
         <f t="shared" si="4"/>
-        <v>-0.36868000000000006</v>
+        <v>-0.32070350000000003</v>
       </c>
       <c r="T29" s="7">
         <f>IF(ISNUMBER(S29), SUMIFS($S$2:S29, $C$2:C29, C29), "")</f>
-        <v>28.979291080800007</v>
+        <v>25.208202444210002</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="5"/>
-        <v>-0.36868000000000006</v>
+        <v>-0.32070350000000003</v>
       </c>
       <c r="V29" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6181,7 +6187,7 @@
       <c r="D30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="119" t="s">
+      <c r="E30" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="42">
@@ -6228,19 +6234,19 @@
       </c>
       <c r="R30" s="5">
         <f>IFERROR(VLOOKUP(C30,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S30" s="19">
         <f t="shared" si="4"/>
-        <v>-1.9852000000000001</v>
+        <v>-1.7268650000000001</v>
       </c>
       <c r="T30" s="7">
         <f>IF(ISNUMBER(S30), SUMIFS($S$2:S30, $C$2:C30, C30), "")</f>
-        <v>26.994091080800008</v>
+        <v>23.481337444210002</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9852000000000001</v>
+        <v>-1.7268650000000001</v>
       </c>
       <c r="V30" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6266,7 +6272,7 @@
       <c r="D31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="119" t="s">
+      <c r="E31" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="41">
@@ -6313,19 +6319,19 @@
       </c>
       <c r="R31" s="5">
         <f>IFERROR(VLOOKUP(C31,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S31" s="19">
         <f t="shared" si="4"/>
-        <v>-1.1344000000000001</v>
+        <v>-0.98677999999999999</v>
       </c>
       <c r="T31" s="7">
         <f>IF(ISNUMBER(S31), SUMIFS($S$2:S31, $C$2:C31, C31), "")</f>
-        <v>25.859691080800008</v>
+        <v>22.494557444210002</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1344000000000001</v>
+        <v>-0.98677999999999999</v>
       </c>
       <c r="V31" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6351,7 +6357,7 @@
       <c r="D32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="119" t="s">
+      <c r="E32" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="41">
@@ -6398,19 +6404,19 @@
       </c>
       <c r="R32" s="5">
         <f>IFERROR(VLOOKUP(C32,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S32" s="19">
         <f t="shared" si="4"/>
-        <v>-2.2688000000000001</v>
+        <v>-1.97356</v>
       </c>
       <c r="T32" s="7">
         <f>IF(ISNUMBER(S32), SUMIFS($S$2:S32, $C$2:C32, C32), "")</f>
-        <v>23.590891080800009</v>
+        <v>20.520997444210003</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="5"/>
-        <v>-2.2688000000000001</v>
+        <v>-1.97356</v>
       </c>
       <c r="V32" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6436,7 +6442,7 @@
       <c r="D33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E33" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="42">
@@ -6483,19 +6489,19 @@
       </c>
       <c r="R33" s="5">
         <f>IFERROR(VLOOKUP(C33,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S33" s="19">
         <f t="shared" si="4"/>
-        <v>-1.9965440000000001</v>
+        <v>-1.7367328</v>
       </c>
       <c r="T33" s="7">
         <f>IF(ISNUMBER(S33), SUMIFS($S$2:S33, $C$2:C33, C33), "")</f>
-        <v>21.594347080800009</v>
+        <v>18.784264644210005</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="5"/>
-        <v>-1.9965440000000001</v>
+        <v>-1.7367328</v>
       </c>
       <c r="V33" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6521,7 +6527,7 @@
       <c r="D34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="119" t="s">
+      <c r="E34" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="42">
@@ -6568,19 +6574,19 @@
       </c>
       <c r="R34" s="5">
         <f>IFERROR(VLOOKUP(C34,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S34" s="19">
         <f t="shared" si="4"/>
-        <v>-2.3935840000000002</v>
+        <v>-2.0821057999999999</v>
       </c>
       <c r="T34" s="7">
         <f>IF(ISNUMBER(S34), SUMIFS($S$2:S34, $C$2:C34, C34), "")</f>
-        <v>19.200763080800009</v>
+        <v>16.702158844210004</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="5"/>
-        <v>-2.3935840000000002</v>
+        <v>-2.0821057999999999</v>
       </c>
       <c r="V34" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6606,7 +6612,7 @@
       <c r="D35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="119" t="s">
+      <c r="E35" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="42">
@@ -6653,19 +6659,19 @@
       </c>
       <c r="R35" s="5">
         <f>IFERROR(VLOOKUP(C35,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S35" s="19">
         <f t="shared" si="4"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="T35" s="7">
         <f>IF(ISNUMBER(S35), SUMIFS($S$2:S35, $C$2:C35, C35), "")</f>
-        <v>18.57117108080001</v>
+        <v>16.154495944210005</v>
       </c>
       <c r="U35" s="8">
         <f t="shared" si="5"/>
-        <v>-0.62959200000000015</v>
+        <v>-0.54766290000000006</v>
       </c>
       <c r="V35" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6691,7 +6697,7 @@
       <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="119" t="s">
+      <c r="E36" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F36" s="42">
@@ -6738,19 +6744,19 @@
       </c>
       <c r="R36" s="5">
         <f>IFERROR(VLOOKUP(C36,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S36" s="19">
         <f t="shared" si="4"/>
-        <v>-3.7775520000000005</v>
+        <v>-3.2859774000000002</v>
       </c>
       <c r="T36" s="7">
         <f>IF(ISNUMBER(S36), SUMIFS($S$2:S36, $C$2:C36, C36), "")</f>
-        <v>14.79361908080001</v>
+        <v>12.868518544210005</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" si="5"/>
-        <v>-3.7775520000000005</v>
+        <v>-3.2859774000000002</v>
       </c>
       <c r="V36" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6776,7 +6782,7 @@
       <c r="D37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="119" t="s">
+      <c r="E37" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="41">
@@ -6823,19 +6829,19 @@
       </c>
       <c r="R37" s="5">
         <f>IFERROR(VLOOKUP(C37,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S37" s="19">
         <f t="shared" si="4"/>
-        <v>-2.8360000000000003</v>
+        <v>-2.4669499999999998</v>
       </c>
       <c r="T37" s="7">
         <f>IF(ISNUMBER(S37), SUMIFS($S$2:S37, $C$2:C37, C37), "")</f>
-        <v>11.95761908080001</v>
+        <v>10.401568544210004</v>
       </c>
       <c r="U37" s="8">
         <f t="shared" si="5"/>
-        <v>-2.8360000000000003</v>
+        <v>-2.4669499999999998</v>
       </c>
       <c r="V37" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6861,7 +6867,7 @@
       <c r="D38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="119" t="s">
+      <c r="E38" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="42">
@@ -6908,19 +6914,19 @@
       </c>
       <c r="R38" s="5">
         <f>IFERROR(VLOOKUP(C38,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S38" s="19">
         <f t="shared" si="4"/>
-        <v>-1.6959280000000003</v>
+        <v>-1.4752361000000001</v>
       </c>
       <c r="T38" s="7">
         <f>IF(ISNUMBER(S38), SUMIFS($S$2:S38, $C$2:C38, C38), "")</f>
-        <v>10.261691080800009</v>
+        <v>8.9263324442100043</v>
       </c>
       <c r="U38" s="8">
         <f t="shared" si="5"/>
-        <v>-1.6959280000000003</v>
+        <v>-1.4752361000000001</v>
       </c>
       <c r="V38" s="9" t="str">
         <f t="shared" si="6"/>
@@ -6946,10 +6952,10 @@
       <c r="D39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="119" t="s">
+      <c r="E39" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="72">
+      <c r="F39" s="71">
         <v>-5.9649999999999999</v>
       </c>
       <c r="G39" s="25">
@@ -6993,19 +6999,19 @@
       </c>
       <c r="R39" s="5">
         <f>IFERROR(VLOOKUP(C39,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S39" s="19">
         <f t="shared" si="4"/>
-        <v>-3.3833480000000002</v>
+        <v>-2.9430713499999999</v>
       </c>
       <c r="T39" s="7">
         <f>IF(ISNUMBER(S39), SUMIFS($S$2:S39, $C$2:C39, C39), "")</f>
-        <v>6.8783430808000094</v>
+        <v>5.983261094210004</v>
       </c>
       <c r="U39" s="8">
         <f t="shared" si="5"/>
-        <v>-3.3833480000000002</v>
+        <v>-2.9430713499999999</v>
       </c>
       <c r="V39" s="9" t="str">
         <f t="shared" si="6"/>
@@ -7031,7 +7037,7 @@
       <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="118" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="41">
@@ -7078,19 +7084,19 @@
       </c>
       <c r="R40" s="5">
         <f>IFERROR(VLOOKUP(C40,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" si="4"/>
-        <v>-0.56720000000000004</v>
+        <v>-0.49339</v>
       </c>
       <c r="T40" s="7">
         <f>IF(ISNUMBER(S40), SUMIFS($S$2:S40, $C$2:C40, C40), "")</f>
-        <v>6.3111430808000097</v>
+        <v>5.4898710942100042</v>
       </c>
       <c r="U40" s="8">
         <f t="shared" si="5"/>
-        <v>-0.56720000000000004</v>
+        <v>-0.49339</v>
       </c>
       <c r="V40" s="9" t="str">
         <f t="shared" si="6"/>
@@ -7104,16 +7110,49 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="37">
+        <v>45805</v>
+      </c>
+      <c r="B41" s="36">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1.5542999999999999E-4</v>
+      </c>
       <c r="G41" s="25">
         <f>SUMIF($C$2:C41,C41,$F$2:F41)</f>
-        <v>0</v>
+        <v>2.9639999999999999E-4</v>
+      </c>
+      <c r="H41" s="5">
+        <v>96246</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.95951578</v>
+      </c>
+      <c r="J41" s="5">
+        <v>4.0484220000000001E-2</v>
       </c>
       <c r="K41" s="5">
         <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13">
         <v>0</v>
       </c>
       <c r="O41" s="7">
@@ -7122,7 +7161,7 @@
       </c>
       <c r="P41" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q41" s="16">
         <f>SUMIF($C$2:C41,C41,$O$2:O41)</f>
@@ -7130,36 +7169,75 @@
       </c>
       <c r="R41" s="5">
         <f>IFERROR(VLOOKUP(C41,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0</v>
+        <v>91414</v>
       </c>
       <c r="S41" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14.208478019999999</v>
       </c>
       <c r="T41" s="7">
         <f>IF(ISNUMBER(S41), SUMIFS($S$2:S41, $C$2:C41, C41), "")</f>
-        <v>0</v>
+        <v>27.095109600000001</v>
       </c>
       <c r="U41" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="9" t="str">
+        <v>-0.79152198000000062</v>
+      </c>
+      <c r="V41" s="9">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-5.2768132000000044E-2</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X41" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="37">
+        <v>45805</v>
+      </c>
+      <c r="B42" s="36">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="6">
+        <v>4.27328E-3</v>
+      </c>
       <c r="G42" s="25">
         <f>SUMIF($C$2:C42,C42,$F$2:F42)</f>
-        <v>0</v>
+        <v>1.8147299999999998E-2</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2333.1</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.969989567999999</v>
+      </c>
+      <c r="J42" s="5">
+        <v>3.0010432E-2</v>
       </c>
       <c r="K42" s="5">
         <f t="shared" si="1"/>
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13">
         <v>0</v>
       </c>
       <c r="O42" s="7">
@@ -7168,44 +7246,83 @@
       </c>
       <c r="P42" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.9999999999999982</v>
       </c>
       <c r="Q42" s="16">
         <f>SUMIF($C$2:C42,C42,$O$2:O42)</f>
-        <v>0</v>
+        <v>2.1701852547599998E-3</v>
       </c>
       <c r="R42" s="5">
         <f>IFERROR(VLOOKUP(C42,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0</v>
+        <v>2234.1999999999998</v>
       </c>
       <c r="S42" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.5473621759999983</v>
       </c>
       <c r="T42" s="7">
         <f>IF(ISNUMBER(S42), SUMIFS($S$2:S42, $C$2:C42, C42), "")</f>
-        <v>0</v>
+        <v>40.54469765999999</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="9" t="str">
+        <v>-0.45263782399999997</v>
+      </c>
+      <c r="V42" s="9">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-4.5263782400000008E-2</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X42" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="37">
+        <v>45805</v>
+      </c>
+      <c r="B43" s="36">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="6">
+        <v>3.2348160000000001E-2</v>
+      </c>
       <c r="G43" s="25">
         <f>SUMIF($C$2:C43,C43,$F$2:F43)</f>
-        <v>0</v>
+        <v>0.19730375</v>
+      </c>
+      <c r="H43" s="5">
+        <v>153.94999999999999</v>
       </c>
       <c r="I43" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9799992319999999</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2.0000767999999999E-2</v>
       </c>
       <c r="K43" s="5">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
         <v>0</v>
       </c>
       <c r="O43" s="7">
@@ -7214,44 +7331,83 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q43" s="16">
         <f>SUMIF($C$2:C43,C43,$O$2:O43)</f>
-        <v>0</v>
+        <v>6.2736203384999997E-4</v>
       </c>
       <c r="R43" s="5">
         <f>IFERROR(VLOOKUP(C43,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0</v>
+        <v>136.34</v>
       </c>
       <c r="S43" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.4103481344000004</v>
       </c>
       <c r="T43" s="7">
         <f>IF(ISNUMBER(S43), SUMIFS($S$2:S43, $C$2:C43, C43), "")</f>
-        <v>0</v>
+        <v>26.900393275000003</v>
       </c>
       <c r="U43" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="9" t="str">
+        <v>-0.5896518655999996</v>
+      </c>
+      <c r="V43" s="9">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-0.11793037311999992</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X43" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="37">
+        <v>45805</v>
+      </c>
+      <c r="B44" s="36">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="22">
+        <v>8.9378650000000004</v>
+      </c>
       <c r="G44" s="25">
         <f>SUMIF($C$2:C44,C44,$F$2:F44)</f>
-        <v>0</v>
+        <v>20.064703999999999</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.55718000000000001</v>
       </c>
       <c r="I44" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9799996207000001</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2.0000379299999999E-2</v>
       </c>
       <c r="K44" s="5">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="13">
+        <v>0</v>
+      </c>
+      <c r="N44" s="13">
         <v>0</v>
       </c>
       <c r="O44" s="7">
@@ -7260,7 +7416,7 @@
       </c>
       <c r="P44" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q44" s="16">
         <f>SUMIF($C$2:C44,C44,$O$2:O44)</f>
@@ -7268,23 +7424,29 @@
       </c>
       <c r="R44" s="5">
         <f>IFERROR(VLOOKUP(C44,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0</v>
+        <v>0.49339</v>
       </c>
       <c r="S44" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.4098532123499998</v>
       </c>
       <c r="T44" s="7">
         <f>IF(ISNUMBER(S44), SUMIFS($S$2:S44, $C$2:C44, C44), "")</f>
-        <v>0</v>
+        <v>9.8997243065600031</v>
       </c>
       <c r="U44" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="9" t="str">
+        <v>-0.59014678765000017</v>
+      </c>
+      <c r="V44" s="9">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-0.11802935753000003</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X44" s="39" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -33523,7 +33685,7 @@
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33560,10 +33722,10 @@
       <c r="F1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="85" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="47" t="s">
@@ -33599,9 +33761,9 @@
         <f>SUMIF(B$2:B2,B2,G$2:G2)</f>
         <v>1.1799999999999999E-6</v>
       </c>
-      <c r="I2" s="72">
+      <c r="I2" s="71">
         <f>H2 * IFERROR(VLOOKUP(B2,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>2.6785645999999998E-3</v>
+        <v>2.6363559999999994E-3</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>68</v>
@@ -33623,32 +33785,53 @@
       <c r="E3" s="1">
         <v>0.15909999999999999</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="88">
         <v>45801</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="87">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="H3" s="6">
         <f>SUMIF(B$2:B3,B3,G$2:G3)</f>
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="71">
         <f>H3 * IFERROR(VLOOKUP(B3,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>9.6509999999999999E-3</v>
+        <v>8.1804000000000009E-3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="37">
+        <v>45803</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.3875200000000001E-2</v>
+      </c>
+      <c r="F4" s="37">
+        <v>45803</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.48E-6</v>
+      </c>
       <c r="H4" s="6">
         <f>SUMIF(B$2:B4,B4,G$2:G4)</f>
-        <v>0</v>
+        <v>2.6599999999999999E-6</v>
       </c>
       <c r="I4" s="1">
         <f>H4 * IFERROR(VLOOKUP(B4,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0</v>
+        <v>5.9429719999999995E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -40628,8 +40811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB63D96-1EE1-0E49-95DC-C17C6A379451}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
@@ -40658,70 +40841,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="73"/>
+      <c r="S1" s="72"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="77">
         <v>97</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
@@ -40768,16 +40951,16 @@
       <c r="R2" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="S2" s="73"/>
+      <c r="S2" s="72"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="77">
         <v>196</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="2" t="s">
         <v>110</v>
       </c>
@@ -40824,7 +41007,7 @@
       <c r="R3" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="80"/>
+      <c r="S3" s="79"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
@@ -40873,13 +41056,13 @@
       <c r="P4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="78" t="s">
         <v>117</v>
       </c>
       <c r="R4" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="S4" s="80"/>
+      <c r="S4" s="79"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
@@ -40942,7 +41125,7 @@
       <c r="C6" s="2">
         <v>25</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
         <v>129</v>
       </c>
       <c r="E6" s="2">
@@ -40982,7 +41165,7 @@
       <c r="P6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R6" s="83" t="s">
+      <c r="R6" s="82" t="s">
         <v>128</v>
       </c>
     </row>
@@ -41833,7 +42016,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="83" t="s">
         <v>171</v>
       </c>
       <c r="B22" s="51"/>
@@ -41865,7 +42048,7 @@
       <c r="L22" s="52">
         <v>0</v>
       </c>
-      <c r="M22" s="82">
+      <c r="M22" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -41878,10 +42061,10 @@
       <c r="P22" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="Q22" s="84" t="s">
+      <c r="Q22" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="R22" s="84" t="s">
+      <c r="R22" s="83" t="s">
         <v>176</v>
       </c>
     </row>
@@ -42289,67 +42472,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB2EA4E-0E38-ED43-82B9-D38D5BC79A12}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y30" sqref="Y30"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="65" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="66" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="68" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="85.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>78</v>
       </c>
     </row>
@@ -42362,40 +42545,40 @@
       </c>
       <c r="C2" s="4">
         <f>IFERROR(SUMIF(Coins!C:C, A2, Coins!F:F)+K2, 0)</f>
-        <v>1.4097E-4</v>
+        <v>2.9639999999999999E-4</v>
       </c>
       <c r="D2" s="12">
         <f>IFERROR(E2 / C2, 0)</f>
-        <v>92218.202454422921</v>
+        <v>94466.936572199731</v>
       </c>
       <c r="E2" s="12">
         <f>SUMIF(Coins!C:C, A2, Coins!K:K)</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12">
         <f>IFERROR(VLOOKUP(A2,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>96201.18</v>
-      </c>
-      <c r="G2" s="12">
+        <v>91414</v>
+      </c>
+      <c r="G2" s="119">
         <f>C2*F2</f>
-        <v>13.5614803446</v>
-      </c>
-      <c r="H2" s="71">
+        <v>27.095109600000001</v>
+      </c>
+      <c r="H2" s="70">
         <f>IFERROR(G2 / SUM($G$2:$G$5), 0)</f>
-        <v>0.1732236348223139</v>
-      </c>
-      <c r="I2" s="68">
+        <v>0.25858515918122915</v>
+      </c>
+      <c r="I2" s="67">
         <f>G2-E2</f>
-        <v>0.56148034459999963</v>
-      </c>
-      <c r="J2" s="71">
+        <v>-0.90489039999999932</v>
+      </c>
+      <c r="J2" s="70">
         <f>IFERROR(I2/E2,0)</f>
-        <v>4.3190795738461511E-2</v>
-      </c>
-      <c r="K2" s="66">
-        <v>0</v>
-      </c>
-      <c r="L2" s="90">
+        <v>-3.2317514285714263E-2</v>
+      </c>
+      <c r="K2" s="65">
+        <v>0</v>
+      </c>
+      <c r="L2" s="89">
         <f>IFERROR(K2*F2,0)</f>
         <v>0</v>
       </c>
@@ -42410,44 +42593,44 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="92">
         <f>IFERROR(SUMIF(Coins!C:C, A3, Coins!F:F)+K3, 0)</f>
-        <v>1.3875199999999997E-2</v>
+        <v>1.814996E-2</v>
       </c>
       <c r="D3" s="12">
         <f t="shared" ref="D3:D4" si="0">IFERROR(E3 / C3, 0)</f>
-        <v>2287.765064431504</v>
+        <v>2299.9057751091464</v>
       </c>
       <c r="E3" s="12">
         <f>SUMIF(Coins!C:C, A3, Coins!K:K)</f>
-        <v>31.743197821999999</v>
+        <v>41.743197821999999</v>
       </c>
       <c r="F3" s="12">
         <f>IFERROR(VLOOKUP(A3,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>2269.9699999999998</v>
+        <v>2234.1999999999998</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ref="G3:G4" si="1">C3*F3</f>
-        <v>31.496287743999989</v>
-      </c>
-      <c r="H3" s="71">
+        <v>40.550640631999997</v>
+      </c>
+      <c r="H3" s="70">
         <f t="shared" ref="H3:H4" si="2">IFERROR(G3 / SUM($G$2:$G$5), 0)</f>
-        <v>0.40230869402082953</v>
-      </c>
-      <c r="I3" s="68">
+        <v>0.38699949981846676</v>
+      </c>
+      <c r="I3" s="67">
         <f t="shared" ref="I3:I5" si="3">G3-E3</f>
-        <v>-0.24691007800000975</v>
-      </c>
-      <c r="J3" s="71">
+        <v>-1.1925571900000023</v>
+      </c>
+      <c r="J3" s="70">
         <f t="shared" ref="J3:J5" si="4">IFERROR(I3/E3,0)</f>
-        <v>-7.7783618205247672E-3</v>
+        <v>-2.8568898700220963E-2</v>
       </c>
       <c r="K3" s="4">
-        <v>1.1799999999999999E-6</v>
-      </c>
-      <c r="L3" s="87">
+        <v>2.6599999999999999E-6</v>
+      </c>
+      <c r="L3" s="86">
         <f t="shared" ref="L3:L5" si="5">IFERROR(K3*F3,0)</f>
-        <v>2.6785645999999998E-3</v>
+        <v>5.9429719999999995E-3</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>79</v>
@@ -42462,42 +42645,42 @@
       </c>
       <c r="C4" s="4">
         <f>IFERROR(SUMIF(Coins!C:C, A4, Coins!F:F)+K4, 0)</f>
-        <v>0.16501559000000002</v>
+        <v>0.19736375</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>151.500836981524</v>
+        <v>152.00359741847225</v>
       </c>
       <c r="E4" s="12">
         <f>SUMIF(Coins!C:C, A4, Coins!K:K)</f>
-        <v>25.000000000000004</v>
+        <v>30.000000000000004</v>
       </c>
       <c r="F4" s="12">
         <f>IFERROR(VLOOKUP(A4,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>160.85</v>
+        <v>136.34</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="1"/>
-        <v>26.542757651500001</v>
-      </c>
-      <c r="H4" s="71">
+        <v>26.908573675</v>
+      </c>
+      <c r="H4" s="70">
         <f t="shared" si="2"/>
-        <v>0.33903621446691179</v>
-      </c>
-      <c r="I4" s="68">
+        <v>0.25680493306030794</v>
+      </c>
+      <c r="I4" s="67">
         <f t="shared" si="3"/>
-        <v>1.542757651499997</v>
-      </c>
-      <c r="J4" s="71">
+        <v>-3.091426325000004</v>
+      </c>
+      <c r="J4" s="70">
         <f t="shared" si="4"/>
-        <v>6.1710306059999873E-2</v>
-      </c>
-      <c r="K4" s="91">
+        <v>-0.10304754416666678</v>
+      </c>
+      <c r="K4" s="90">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="L4" s="87">
+      <c r="L4" s="86">
         <f t="shared" si="5"/>
-        <v>9.6509999999999999E-3</v>
+        <v>8.1804000000000009E-3</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>205</v>
@@ -42510,42 +42693,42 @@
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="91">
         <f>C6-B13</f>
-        <v>11.79183900000001</v>
-      </c>
-      <c r="D5" s="70">
+        <v>20.729704000000005</v>
+      </c>
+      <c r="D5" s="69">
         <f>D6</f>
-        <v>0.54552507596598854</v>
+        <v>0.54737837545073331</v>
       </c>
       <c r="E5" s="12">
         <f>E6-C13</f>
-        <v>6.4327438662537162</v>
-      </c>
-      <c r="F5" s="70">
+        <v>11.34699169909457</v>
+      </c>
+      <c r="F5" s="69">
         <f>F6</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="G5" s="12">
         <f>C5*F5</f>
-        <v>6.6883310808000065</v>
-      </c>
-      <c r="H5" s="71">
+        <v>10.227828656560002</v>
+      </c>
+      <c r="H5" s="70">
         <f>IFERROR(G5 / SUM($G$2:$G$5), 0)</f>
-        <v>8.5431456689944785E-2</v>
-      </c>
-      <c r="I5" s="68">
+        <v>9.7610407939996119E-2</v>
+      </c>
+      <c r="I5" s="67">
         <f t="shared" si="3"/>
-        <v>0.2555872145462903</v>
-      </c>
-      <c r="J5" s="71">
+        <v>-1.1191630425345682</v>
+      </c>
+      <c r="J5" s="70">
         <f t="shared" si="4"/>
-        <v>3.9732223116655578E-2</v>
-      </c>
-      <c r="K5" s="66">
-        <v>0</v>
-      </c>
-      <c r="L5" s="87">
+        <v>-9.8630815304453917E-2</v>
+      </c>
+      <c r="K5" s="65">
+        <v>0</v>
+      </c>
+      <c r="L5" s="86">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -42560,39 +42743,39 @@
       <c r="B6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="113">
         <f>IFERROR(SUMIF(Coins!D:D, B6, Coins!F:F), 0)</f>
-        <v>58.061838999999999</v>
-      </c>
-      <c r="D6" s="111">
+        <v>66.999703999999994</v>
+      </c>
+      <c r="D6" s="110">
         <f t="shared" ref="D6" si="6">IFERROR(E6 / C6, 0)</f>
-        <v>0.54552507596598854</v>
-      </c>
-      <c r="E6" s="112">
+        <v>0.54737837545073331</v>
+      </c>
+      <c r="E6" s="111">
         <f>SUMIF(Coins!C:C, A6, Coins!K:K)</f>
-        <v>31.674189131199999</v>
-      </c>
-      <c r="F6" s="111">
+        <v>36.674189131199995</v>
+      </c>
+      <c r="F6" s="110">
         <f>IFERROR(VLOOKUP(A6,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
-      </c>
-      <c r="G6" s="112">
+        <v>0.49339</v>
+      </c>
+      <c r="G6" s="111">
         <f t="shared" ref="G6" si="7">C6*F6</f>
-        <v>32.932675080800003</v>
-      </c>
-      <c r="H6" s="97" t="s">
+        <v>33.056983956559996</v>
+      </c>
+      <c r="H6" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="115" t="s">
+      <c r="K6" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="112" t="s">
         <v>199</v>
       </c>
       <c r="M6" s="52" t="s">
@@ -42600,36 +42783,36 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102">
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101">
         <f>SUM(E2:E5)</f>
-        <v>76.175941688253715</v>
-      </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102">
+        <v>111.09018952109457</v>
+      </c>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101">
         <f>SUM(G2:G5)</f>
-        <v>78.288856820899994</v>
-      </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104">
+        <v>104.78215256356</v>
+      </c>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103">
         <f>G7-E7</f>
-        <v>2.1129151326462789</v>
-      </c>
-      <c r="J7" s="103">
+        <v>-6.3080369575345685</v>
+      </c>
+      <c r="J7" s="102">
         <f>IFERROR(I7/E7,0)</f>
-        <v>2.7737302431957846E-2</v>
-      </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="105">
+        <v>-5.6783024538244707E-2</v>
+      </c>
+      <c r="K7" s="100"/>
+      <c r="L7" s="104">
         <f>SUM(L2:L5)</f>
-        <v>1.2329564599999999E-2</v>
-      </c>
-      <c r="M7" s="106"/>
+        <v>1.4123372E-2</v>
+      </c>
+      <c r="M7" s="105"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
@@ -42644,26 +42827,26 @@
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
       <c r="F10" s="120"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>12</v>
       </c>
     </row>
@@ -42671,7 +42854,7 @@
       <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="66" t="s">
         <v>199</v>
       </c>
       <c r="C12" s="12">
@@ -42685,7 +42868,7 @@
         <f>C12</f>
         <v>10.469999999999999</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="70" t="s">
         <v>200</v>
       </c>
     </row>
@@ -42693,56 +42876,56 @@
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="66">
         <f>IFERROR(SUMIF('Digital Art'!N:N, A13, 'Digital Art'!M:M), 0)</f>
         <v>46.269999999999989</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="69">
         <f>B13*D5</f>
-        <v>25.241445264946282</v>
-      </c>
-      <c r="D13" s="70">
+        <v>25.327197432105425</v>
+      </c>
+      <c r="D13" s="69">
         <f>IFERROR(VLOOKUP(A13,Kurse!$A$2:$B$101,2,FALSE), 0)</f>
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="E13" s="12">
         <f>B13*D13</f>
-        <v>26.244343999999995</v>
-      </c>
-      <c r="F13" s="71"/>
+        <v>22.829155299999993</v>
+      </c>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="110">
+      <c r="B14" s="106"/>
+      <c r="C14" s="109">
         <f>C12+C13</f>
-        <v>35.711445264946278</v>
-      </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="108"/>
+        <v>35.79719743210542</v>
+      </c>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="107"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="4"/>
-      <c r="D17" s="70"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="70"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="L17" s="87"/>
+      <c r="F17" s="69"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="L17" s="86"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="4"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="70"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99"/>
-      <c r="L18" s="87"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="69"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="L18" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -42755,10 +42938,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8074FB-220D-1A41-8D0D-A8C1B88B56EC}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="253" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="253" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42766,12 +42949,12 @@
     <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="9.1640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>2</v>
       </c>
@@ -42784,131 +42967,158 @@
       <c r="D1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
-        <v>96201.18</v>
+        <v>91414</v>
       </c>
       <c r="C2" s="37">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D2" s="46">
-        <v>0.71875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5">
-        <v>2269.9699999999998</v>
+        <v>2234.1999999999998</v>
       </c>
       <c r="C3" s="37">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D3" s="46">
-        <v>0.71875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="5">
-        <v>160.85</v>
+        <v>136.34</v>
       </c>
       <c r="C4" s="37">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D4" s="46">
-        <v>0.71875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="5">
-        <v>0.56720000000000004</v>
+        <v>0.49339</v>
       </c>
       <c r="C5" s="37">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="D5" s="46">
-        <v>0.71875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="57">
-        <v>1.3563999999999999E-5</v>
-      </c>
-      <c r="C6" s="56">
-        <v>45799</v>
+      <c r="B6" s="56">
+        <v>1.101E-5</v>
+      </c>
+      <c r="C6" s="54">
+        <v>45808</v>
       </c>
       <c r="D6" s="55">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="E6" s="52" t="s">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="53">
-        <v>4.6233000000000004</v>
+        <v>3.3357999999999999</v>
       </c>
       <c r="C7" s="54">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D7" s="55">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="E7" s="52" t="s">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="53">
-        <v>88.039000000000001</v>
+        <v>75.436000000000007</v>
       </c>
       <c r="C8" s="54">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D8" s="55">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="E8" s="52" t="s">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="53">
-        <v>4.3917999999999999</v>
+        <v>3.5299</v>
       </c>
       <c r="C9" s="54">
-        <v>45799</v>
+        <v>45808</v>
       </c>
       <c r="D9" s="55">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="E9" s="52" t="s">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="52" t="s">
         <v>45</v>
       </c>
     </row>
